--- a/DesignerRawData/Excel/Chapter1.xlsx
+++ b/DesignerRawData/Excel/Chapter1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C57FB633-4D32-4CB7-B24F-6830AD72986B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861494DD-A3C6-48F7-80AD-69A3AB8863BC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chapter1-1" sheetId="1" r:id="rId1"/>
-    <sheet name="Chapter1-2" sheetId="4" r:id="rId2"/>
+    <sheet name="DT_Chapter1-1" sheetId="1" r:id="rId1"/>
+    <sheet name="DT_Chapter1-2" sheetId="4" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -303,21 +303,6 @@
         <row r="2">
           <cell r="A2" t="str">
             <v>id_programmer</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>id_designer</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>id_artist</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>id_unknwon</v>
           </cell>
         </row>
       </sheetData>
@@ -645,7 +630,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/DesignerRawData/Excel/Chapter1.xlsx
+++ b/DesignerRawData/Excel/Chapter1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861494DD-A3C6-48F7-80AD-69A3AB8863BC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4BCE4D-C290-4055-91A4-D158192C7FF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DT_Chapter1-1" sheetId="1" r:id="rId1"/>
-    <sheet name="DT_Chapter1-2" sheetId="4" r:id="rId2"/>
+    <sheet name="Chapter1-1_StringTable" sheetId="2" r:id="rId1"/>
+    <sheet name="Chapter1-2_StringTable" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -27,10 +27,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
-  <si>
-    <t>id_chapter_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SourceString</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
   <si>
     <t>id_001</t>
@@ -38,25 +44,170 @@
   </si>
   <si>
     <t>id_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DialogueText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DialogueTalkerNameID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_programmer</t>
-  </si>
-  <si>
-    <t>這個遊戲主要會展示 HorizonDialogue Plugin 內的一些主要的功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>話不多說，馬上讓我們來看看這個Plugin能夠做到那些事吧！</t>
+  </si>
+  <si>
+    <t>id_003</t>
+  </si>
+  <si>
+    <t>id_004</t>
+  </si>
+  <si>
+    <t>id_005</t>
+  </si>
+  <si>
+    <t>id_006</t>
+  </si>
+  <si>
+    <t>id_007</t>
+  </si>
+  <si>
+    <t>id_008</t>
+  </si>
+  <si>
+    <t>id_009</t>
+  </si>
+  <si>
+    <t>id_010</t>
+  </si>
+  <si>
+    <t>id_011</t>
+  </si>
+  <si>
+    <t>id_012</t>
+  </si>
+  <si>
+    <t>id_013</t>
+  </si>
+  <si>
+    <t>id_014</t>
+  </si>
+  <si>
+    <t>id_015</t>
+  </si>
+  <si>
+    <t>id_016</t>
+  </si>
+  <si>
+    <t>id_017</t>
+  </si>
+  <si>
+    <t>id_018</t>
+  </si>
+  <si>
+    <t>id_019</t>
+  </si>
+  <si>
+    <t>id_020</t>
+  </si>
+  <si>
+    <t>id_021</t>
+  </si>
+  <si>
+    <t>id_022</t>
+  </si>
+  <si>
+    <t>id_023</t>
+  </si>
+  <si>
+    <t>Hello！Anyone here?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm here, did you need any help?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh, yes,  Mr. Programmer, could you please teach me…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You want to know how to use "HorizonDialogue Plugin", right?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes! You can actually read my mind. Just get this Plugin, but I don't know how to use this plugin properly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which part did you want to know first?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Could you please tell me the main purpose of this plugin?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To put it briefly, the goal of this plugin is trying to establish a gameplay framework which add functions to help game designer integrate story in their game.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>At anytime, anywhere.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sounds cool! But how it works?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First, you will need to buy my other plugins first: HorizonUI, HorizonTween and HorizonFramework.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Because HorizonDialogue plugin integrated plugins mention above very tightly, and design a framework for game designer, so they can design add their "DialogueEvent".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did you just say framework? Is it something related to UE4 gameplay framework?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh, sorry for the confusing, the framework here means workflow provided by HorizonFramework and additional events provided by HorizonDialogue Plugins.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In HorizonDialogue Plugins, it add a new "AddDialogueEvent" in newly created HorizonDialogueScene. 
+Now, HorizonDialogueScene lifecycle will become: 
+BeginPlay-&gt;Enter-&gt;StartTransIn-&gt;OnEnter-&gt;AddDialogueEvent-&gt;TickScene-&gt;Exit-&gt;StartTransOut-&gt;OnExit-&gt;EndPlay.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thank you! I got it, so we need HorizonUI because we need to use DialogueWidgets in the Plugin?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, the Dialogue and RichText functions are integrated in HorizonDialogue Plugin.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is it same for the HorizonTween?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can use tween system provided by HorizonTween plugin to do some animation for your story.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for example: Move, rotation you text and image widgets or fade in fade out.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmm…seems very complicated, didn't you know any quick start?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, this demo project are provided in github, you can download it and see how to use.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I will put some basic and advanced usage of this pluin in this demo project.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Great! Look forward to it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This demo project will demostrate some main features of HorizonDialogue Plugin.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -64,169 +215,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id_designer</t>
-  </si>
-  <si>
-    <t>id_003</t>
-  </si>
-  <si>
-    <t>id_004</t>
-  </si>
-  <si>
-    <t>id_005</t>
-  </si>
-  <si>
-    <t>id_006</t>
-  </si>
-  <si>
-    <t>恩？有什麼事嗎？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_007</t>
-  </si>
-  <si>
-    <t>id_008</t>
-  </si>
-  <si>
-    <t>id_009</t>
-  </si>
-  <si>
-    <t>id_010</t>
-  </si>
-  <si>
-    <t>id_011</t>
-  </si>
-  <si>
-    <t>id_012</t>
-  </si>
-  <si>
-    <t>id_013</t>
-  </si>
-  <si>
-    <t>id_014</t>
-  </si>
-  <si>
-    <t>id_015</t>
-  </si>
-  <si>
-    <t>id_016</t>
-  </si>
-  <si>
-    <t>id_017</t>
-  </si>
-  <si>
-    <t>id_018</t>
-  </si>
-  <si>
-    <t>id_019</t>
-  </si>
-  <si>
-    <t>id_020</t>
-  </si>
-  <si>
-    <t>id_021</t>
-  </si>
-  <si>
-    <t>id_022</t>
-  </si>
-  <si>
-    <t>id_023</t>
-  </si>
-  <si>
-    <t>Hello！有人在嗎？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聽起來蠻酷炫的，實際上是怎麼運作的呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你想要從那邊開始了解起呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在套用這套系統框架之後，遊戲開發者就能夠隨意的在遊戲中加入各種對話演出與劇情。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如：文字或圖片的移動、旋轉，或者是淡出跟淡入。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好像有點複雜，有什麼快速入門的方法呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真令人期待！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是程式大大！正好有個問題想請教你。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是想問這個 Horizon Dialogue Plugin 該怎麼使用嗎？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真不愧是大大！馬上就猜出我想問什麼了！剛剛才拿到這個 Plugin ，正困擾著該怎麼使用呢。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以先談談 Plugin 主要的用途是什麼嗎？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡單來說，這個 Plugin 的主要目標是想要建立一套遊戲系統框架。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首先，在開始使用這套 Plugin 之前，我建議先去研究 HorizonUI 、 HorizonTween 以及 HorizonFramework 這幾個 Plugin 的功能該怎麼使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因為 Dialogue Plugin 非常緊密的整合了這幾套 Plugin ，並在增加了對話演出所需要的流程與功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剛剛所提到的遊戲系統框架，跟 HorizonFramework 有什麼關係嗎？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是的， HorizonDialogue Plugin 的系統框架就是對 HorizonFramework 進行擴增，二套 Plugin 在工作流程的設計基本上是一致的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只是為了加入對話事件，因此在 HorizonScene 的生命週期中新插入了： AddDialogueEvent 這個事件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗯，大致上有那麼一點感覺了。所以說 HorizonUI 的用途主要是用來顯示對話的囉？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是的，藉由 HorizonUI 中所提供的功能，就能夠實現多樣的文字對話效果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那 HorizonTween 呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HorizonTween 的話，主要是拿來實現一些文字與圖片的動畫效果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我想，先到 GitHub 上把這個專案 Demo 抓下來玩玩是最快的方法了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在這之後我會示範幾個 Plugin 的進階用法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Horizon Dialogue Plugin 簡介</t>
+    <t>id_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;text&gt;You can download this demo project from GitHub:&lt;/text&gt;&lt;br/&gt;  
+&lt;a href="https://github.com/dorgonman/HorizonDialogueDemo"&gt;
+&lt;text color="#0000FFFF"&gt;https://github.com/dorgonman/HorizonUIPluginDemo. &lt;/text&gt;
+&lt;/a&gt;
+&lt;text&gt; And check functionality of this plugin.&lt;/text&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,8 +271,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -293,10 +297,11 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="DT_DialogueTalkerName"/>
       <sheetName val="DialogueTalkerName"/>
     </sheetNames>
     <definedNames>
-      <definedName name="DialogueTalkerNameID" refersTo="='DialogueTalkerName'!$A:$A"/>
+      <definedName name="DialogueTalkerNameID" refersTo="='DT_DialogueTalkerName'!$A:$A"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -306,6 +311,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -573,362 +579,279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B51F96F-FD7A-4269-A5B1-B014648E7BF7}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="160.28515625" customWidth="1"/>
-    <col min="4" max="4" width="62.7109375" customWidth="1"/>
+    <col min="2" max="2" width="78.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{0B193EB9-6AF1-4DB2-9D2A-921F66772904}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{55CB7F29-A9B6-4F34-9917-155B665679BE}">
-      <formula1>DialogueTalkerName.xlsx</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="103.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="139.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>DialogueTalkerName.xlsx</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
